--- a/data/income_statement/2digits/size/36_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/36_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>36-Water collection, treatment and supply</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>36-Water collection, treatment and supply</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>15755.17755</v>
+        <v>16951.78561</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>17766.52976</v>
+        <v>20420.16568</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>41375.45613000001</v>
+        <v>42134.99647</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>30656.62104</v>
+        <v>31114.81868</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>47449.72021</v>
+        <v>45679.57539</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>53192.28509</v>
+        <v>58433.91847</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>52685.11898</v>
+        <v>71597.35464000001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>77829.35105</v>
+        <v>82429.94778</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>96808.02545999999</v>
+        <v>114118.76057</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>103560.16043</v>
+        <v>110737.78944</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>106984.68003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>106703.64372</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>562446.71</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>15105.45921</v>
+        <v>16302.36727</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>17420.91557</v>
+        <v>20380.24923</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>40690.82451</v>
+        <v>41732.88974</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>30197.03154</v>
+        <v>30932.57466</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>46362.36882</v>
+        <v>44540.88113</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>48338.13614</v>
+        <v>51494.10736</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>47992.41893</v>
+        <v>66726.08289000001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>75087.46879000001</v>
+        <v>80192.50119</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>95022.85468999999</v>
+        <v>112574.87891</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>100959.52519</v>
+        <v>108242.17731</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>102462.63152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>100915.04776</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>555016.551</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>110.70775</v>
@@ -1040,160 +956,180 @@
         <v>112.1935</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>731.5238900000001</v>
+        <v>649.44542</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>4085.58817</v>
+        <v>6064.25182</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>3904.94967</v>
+        <v>3910.60328</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1734.82677</v>
+        <v>1635.61114</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>973.4265</v>
+        <v>900.4265</v>
       </c>
       <c r="L7" s="48" t="n">
         <v>1584.11353</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>3374.47786</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>4904.920059999999</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>6183.276</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>539.01059</v>
+        <v>538.7105899999999</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>319.49974</v>
+        <v>13.802</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>367.67106</v>
+        <v>85.14617</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>347.396</v>
+        <v>70.05052000000001</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>355.8275</v>
+        <v>489.24884</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>768.56078</v>
+        <v>875.55929</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>787.75038</v>
+        <v>960.66847</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>1007.05549</v>
+        <v>601.8354499999999</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>811.74427</v>
+        <v>643.45516</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1016.52171</v>
+        <v>911.4986</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1147.57065</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>883.6759000000001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1246.883</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>161.39475</v>
+        <v>145.61055</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>48.89699</v>
+        <v>64.37873999999999</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>37.68665</v>
+        <v>34.47</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>49.99405</v>
+        <v>47.57012</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>42.58205</v>
+        <v>38.99792</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>197.7273</v>
+        <v>151.93642</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>100.39412</v>
+        <v>272.26217</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>171.57186</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>412.37794</v>
+        <v>445.06461</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>520.9069500000001</v>
+        <v>571.3270799999999</v>
       </c>
       <c r="M9" s="47" t="n">
         <v>928.29427</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>1809.767</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>161.19331</v>
+        <v>137.57943</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>28.55115</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>27.31145</v>
+        <v>24.0948</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>31.09191</v>
+        <v>29.48398</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>24.82028</v>
+        <v>21.88451</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>178.30891</v>
+        <v>132.51803</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>92.91947</v>
+        <v>229.77291</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>149.53292</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>368.52838</v>
+        <v>401.21505</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>354.61961</v>
+        <v>405.03974</v>
       </c>
       <c r="M10" s="48" t="n">
         <v>204.43873</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>1678.455</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>0.20144</v>
+        <v>8.03112</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>20.34584</v>
+        <v>35.82758999999999</v>
       </c>
       <c r="E11" s="48" t="n">
         <v>10.3752</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>18.90214</v>
+        <v>18.08614</v>
       </c>
       <c r="G11" s="48" t="n">
         <v>17.11341</v>
@@ -1202,7 +1138,7 @@
         <v>0.73176</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>0</v>
+        <v>35.01461</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>0</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>715.91854</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>131.312</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0</v>
@@ -1235,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>0.64836</v>
+        <v>0</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>18.68663</v>
@@ -1255,206 +1196,236 @@
       <c r="M12" s="48" t="n">
         <v>7.937</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>15593.7828</v>
+        <v>16806.17506</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>17717.63277</v>
+        <v>20355.78694</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>41337.76948</v>
+        <v>42100.52647</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>30606.62699</v>
+        <v>31067.24856</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>47407.13815999999</v>
+        <v>45640.57747</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>52994.55779</v>
+        <v>58281.98205</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>52584.72486</v>
+        <v>71325.09247</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>77657.77919</v>
+        <v>82258.37592000001</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>96395.64752</v>
+        <v>113673.69596</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>103039.25348</v>
+        <v>110166.46236</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>106056.38576</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>105775.34945</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>560636.943</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>12165.03716</v>
+        <v>14111.38949</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>7079.48743</v>
+        <v>10633.3243</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>28122.28267</v>
+        <v>28794.73258</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>14609.15613</v>
+        <v>15263.7888</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>26908.98767</v>
+        <v>27865.96492</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>37554.00268</v>
+        <v>47364.99089</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>36437.02417</v>
+        <v>53271.8317</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>58291.72366</v>
+        <v>63980.51218999999</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>84127.56019</v>
+        <v>99274.25443</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>94125.23956999999</v>
+        <v>99963.32234999999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>98194.67912999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>100404.76552</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>581230.201</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>1667.33773</v>
+        <v>3409.51738</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>1892.40449</v>
+        <v>4434.58644</v>
       </c>
       <c r="E15" s="48" t="n">
         <v>2218.79068</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1871.19199</v>
+        <v>2015.74807</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>2027.57586</v>
+        <v>2028.43372</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>9611.135</v>
+        <v>13369.03428</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>5705.172759999999</v>
+        <v>11278.2718</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>15306.20067</v>
+        <v>17775.80866</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>17968.17094</v>
+        <v>23498.22273</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>27985.372</v>
+        <v>26991.89386</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>28473.92364</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>28377.13891</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>40639.363</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>2921.11806</v>
+        <v>2904.42366</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>814.62519</v>
+        <v>781.1968000000001</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>3970.64892</v>
+        <v>3373.49497</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>3375.90966</v>
+        <v>2527.18123</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>5180.54407</v>
+        <v>3435.61534</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>6602.00888</v>
+        <v>6258.68491</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>9002.23085</v>
+        <v>9577.10757</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>14053.47421</v>
+        <v>14846.25953</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>18353.8074</v>
+        <v>24000.91906</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>17694.14621</v>
+        <v>17538.72485</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>17237.82623</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>19364.30408</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>21206.185</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>7576.58137</v>
+        <v>7797.44845</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>4372.45775</v>
+        <v>5417.54106</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>21932.84307</v>
+        <v>23202.44693</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>9362.054480000001</v>
+        <v>10720.8595</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>19700.86774</v>
+        <v>22401.91586</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>21291.2588</v>
+        <v>27687.6717</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>21729.62056</v>
+        <v>32416.45233</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>28797.94615</v>
+        <v>31224.34137</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>46953.48165</v>
+        <v>50923.01244</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>47039.30304</v>
+        <v>54026.28532</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>51975.74215999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>52156.13543</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>518995.203</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>0</v>
@@ -1489,89 +1460,104 @@
       <c r="M18" s="48" t="n">
         <v>507.1871</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>389.45</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>3428.74564</v>
+        <v>2694.78557</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>10638.14534</v>
+        <v>9722.46264</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>13215.48681</v>
+        <v>13305.79389</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>15997.47086</v>
+        <v>15803.45976</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>20498.15049</v>
+        <v>17774.61255</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>15440.55511</v>
+        <v>10916.99116</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>16147.70069</v>
+        <v>18053.26077</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>19366.05553</v>
+        <v>18277.86373</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>12268.08733</v>
+        <v>14399.44153</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>8914.01391</v>
+        <v>10203.14001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>7861.70663</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>5370.58393</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>-20593.258</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>3793.75053</v>
+        <v>4394.039769999999</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>11298.3433</v>
+        <v>12348.24434</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>12743.38906</v>
+        <v>12839.62214</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>14035.63059</v>
+        <v>13770.40266</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>19321.57399</v>
+        <v>17943.88099</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>13440.10688</v>
+        <v>13637.6897</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>13214.29819</v>
+        <v>14850.31024</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>17304.37507</v>
+        <v>15317.95557</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>19642.67568</v>
+        <v>21306.18074</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>15808.18461</v>
+        <v>17176.75728</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>18138.72489</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>17734.67953</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>17355.426</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1583,13 +1569,13 @@
         <v>2.83</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>1.61094</v>
+        <v>0</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>5.03897</v>
+        <v>1.07697</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>5.1025</v>
+        <v>0</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>0</v>
@@ -1606,167 +1592,192 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>847.49189</v>
+        <v>455.73489</v>
       </c>
       <c r="D22" s="48" t="n">
         <v>526.39171</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>613.7282299999999</v>
+        <v>513.22429</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>648.00802</v>
+        <v>528.85955</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>1584.85405</v>
+        <v>1315.10015</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1835.8991</v>
+        <v>2038.86064</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>3080.11193</v>
+        <v>4651.54201</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>4824.91688</v>
+        <v>4517.173769999999</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>5645.88592</v>
+        <v>5652.87897</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>4514.360559999999</v>
+        <v>4227.60059</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>5362.57812</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>5237.124839999999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>3968.593</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>2946.25864</v>
+        <v>3938.30488</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>10770.74661</v>
+        <v>11820.64765</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>12126.83083</v>
+        <v>12323.56785</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>13386.01163</v>
+        <v>13241.54311</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>17731.68097</v>
+        <v>16627.70387</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>11599.10528</v>
+        <v>11598.82906</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>10134.18626</v>
+        <v>10198.76823</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>12479.45819</v>
+        <v>10800.7818</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>13996.78976</v>
+        <v>15653.30177</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>11293.82405</v>
+        <v>12949.15669</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>12776.14677</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>12497.55469</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>13386.833</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-365.00489</v>
+        <v>-1699.2542</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-660.19796</v>
+        <v>-2625.7817</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>472.09775</v>
+        <v>466.17175</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>1961.84027</v>
+        <v>2033.0571</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1176.5765</v>
+        <v>-169.26844</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>2000.44823</v>
+        <v>-2720.69854</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>2933.4025</v>
+        <v>3202.95053</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>2061.68046</v>
+        <v>2959.90816</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-7374.58835</v>
+        <v>-6906.73921</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-6894.170700000001</v>
+        <v>-6973.61727</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-10277.01826</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-12364.0956</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-37948.684</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>341.61565</v>
+        <v>161.48709</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>852.81066</v>
+        <v>842.71462</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>193.35506</v>
+        <v>489.39334</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1119.38397</v>
+        <v>1490.79976</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>635.67896</v>
+        <v>957.94079</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1672.69608</v>
+        <v>6654.53713</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1072.60672</v>
+        <v>5909.78269</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>766.83796</v>
+        <v>7050.78142</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>934.9791300000001</v>
+        <v>1288.38947</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>4598.956929999999</v>
+        <v>7850.736730000001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>2008.08602</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>3252.98193</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>49276.421</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>72.36597</v>
+        <v>15.2639</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>70.88808</v>
+        <v>75.30467</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>70.77285999999999</v>
+        <v>87.97902000000001</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>70.14581</v>
+        <v>79.82491999999999</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>130.48775</v>
+        <v>39.21346</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>278.70677</v>
+        <v>893.14986</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>246.83502</v>
+        <v>551.60139</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>232.38152</v>
+        <v>154.84865</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>95.34172</v>
+        <v>86.11646</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1003.52781</v>
+        <v>3665.69633</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>848.91601</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>899.20081</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1236.417</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>0</v>
@@ -1946,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>11.067</v>
+        <v>0</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>20.774</v>
@@ -1957,29 +1988,34 @@
       <c r="M30" s="48" t="n">
         <v>57.8598</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>504.836</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>0.09418000000000001</v>
+        <v>0.93171</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>0</v>
+        <v>0.83294</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>4.281569999999999</v>
+        <v>6.00942</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>6.56821</v>
+        <v>6.83691</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>4.940729999999999</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>0.04236</v>
+        <v>0.10544</v>
       </c>
       <c r="I31" s="48" t="n">
         <v>0</v>
@@ -1988,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>0</v>
+        <v>0.01084</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>26.07098</v>
@@ -1996,56 +2032,66 @@
       <c r="M31" s="48" t="n">
         <v>44.65262000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>75.485</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>261.32125</v>
+        <v>135.20189</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>24.95472</v>
+        <v>2.35999</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>26.86668</v>
+        <v>310.42155</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>383.51878</v>
+        <v>762.1223100000001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>179.1862</v>
+        <v>655.0807600000001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>259.44678</v>
+        <v>4550.93682</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>484.41028</v>
+        <v>4890.58129</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>314.00665</v>
+        <v>6745.15197</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>521.28009</v>
+        <v>971.3996</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>3296.8825</v>
+        <v>3382.36884</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>635.89566</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1914.90728</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>42563.236</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>0</v>
+        <v>0.15271</v>
       </c>
       <c r="E33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,95 +2164,110 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>7.83425</v>
+        <v>10.08959</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>8.46786</v>
+        <v>15.56431</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>91.43395</v>
+        <v>84.98335</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>58.34271</v>
+        <v>41.20716</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>78.76635</v>
+        <v>16.40791</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>185.97358</v>
+        <v>261.81842</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>341.36142</v>
+        <v>467.60001</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>209.38279</v>
+        <v>150.7808</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>297.58332</v>
+        <v>210.08857</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>247.98043</v>
+        <v>752.10537</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>420.76193</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>336.36142</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>4896.447</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>247.70444</v>
+        <v>136.82568</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>170.36542</v>
+        <v>6.51873</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>1313.08792</v>
+        <v>1020.28491</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>23.64239</v>
+        <v>556.97077</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>843.69058</v>
+        <v>1829.12316</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1872.68691</v>
+        <v>2009.64506</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>2673.99797</v>
+        <v>7323.70549</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>2481.14284</v>
+        <v>5578.97973</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>1562.32245</v>
+        <v>1070.68894</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>3887.05293</v>
+        <v>4203.998799999999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>3335.75785</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>3917.00329</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>69038.98</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>9.926549999999999</v>
+        <v>0</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>0</v>
@@ -2210,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>5.766529999999999</v>
+        <v>0</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>5.19085</v>
@@ -2230,17 +2296,22 @@
       <c r="M37" s="48" t="n">
         <v>45.9238</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>30.858</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>0</v>
+        <v>2.51246</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>0</v>
+        <v>3.34738</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>31.039</v>
@@ -2252,13 +2323,13 @@
         <v>44.15023</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>72.57450999999999</v>
+        <v>56.68251</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>19.307</v>
+        <v>30.93332</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>165.824</v>
+        <v>128.67</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>278.52871</v>
@@ -2269,14 +2340,19 @@
       <c r="M38" s="48" t="n">
         <v>2790.02578</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>1467.756</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>7.02542</v>
+        <v>0</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>0</v>
@@ -2300,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>0</v>
+        <v>0.74341</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>0</v>
@@ -2308,53 +2384,63 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>240.33447</v>
+        <v>133.81596</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>160.43887</v>
+        <v>3.17135</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1278.79759</v>
+        <v>985.99463</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>17.67551</v>
+        <v>531.7666400000001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>723.01882</v>
+        <v>1782.22792</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1731.38214</v>
+        <v>1843.35611</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>2644.17441</v>
+        <v>7235.29021</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>2308.55805</v>
+        <v>5444.17649</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>1216.53803</v>
+        <v>724.16111</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1240.70979</v>
+        <v>1278.02439</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>470.40556</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>1051.651</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>67537.382</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>0</v>
+        <v>0.15271</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2402,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>0.7627</v>
+        <v>0</v>
       </c>
       <c r="G42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>0.34455</v>
@@ -2438,118 +2534,133 @@
         <v>0</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>3.25133</v>
+        <v>3.25128</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>5e-05</v>
+        <v>20</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>70.755</v>
+        <v>2.74501</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>63.53941</v>
+        <v>104.41559</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>5.86595</v>
+        <v>52.83135</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>0.7163999999999999</v>
+        <v>0.08885</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>67.23571000000001</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>5.87353</v>
+        <v>285.5048</v>
       </c>
       <c r="M43" s="48" t="n">
         <v>29.40271</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>2.984</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>310.2649699999999</v>
+        <v>1572.0414</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>282.22246</v>
+        <v>1281.92461</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>364.20503</v>
+        <v>866.4745899999999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>552.06129</v>
+        <v>527.69724</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>521.688</v>
+        <v>587.15621</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>475.46952</v>
+        <v>853.29881</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1223.68868</v>
+        <v>2997.95813</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1048.53654</v>
+        <v>1313.00926</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>1191.91055</v>
+        <v>1835.72123</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>4197.03172</v>
+        <v>4036.78561</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>2457.21235</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>2453.55775</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1399.525</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>264.33083</v>
+        <v>1535.00341</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>282.22246</v>
+        <v>1281.92461</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>364.20503</v>
+        <v>866.4745899999999</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>552.06129</v>
+        <v>527.69724</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>521.688</v>
+        <v>587.15621</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>470.30446</v>
+        <v>848.64825</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1158.8736</v>
+        <v>2933.14305</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>990.0068199999999</v>
+        <v>1254.47954</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>1191.91055</v>
+        <v>1808.55205</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>4176.35414</v>
+        <v>4016.10803</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>2457.21235</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>2453.55775</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1352.139</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>45.93414</v>
+        <v>37.03799</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>0</v>
@@ -2564,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>5.16506</v>
+        <v>4.65056</v>
       </c>
       <c r="I46" s="48" t="n">
         <v>64.81507999999999</v>
@@ -2573,7 +2684,7 @@
         <v>58.52972</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>0</v>
+        <v>27.16918</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>20.67758</v>
@@ -2581,116 +2692,131 @@
       <c r="M46" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>47.386</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-581.35865</v>
+        <v>-3246.63419</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-259.97518</v>
+        <v>-3071.51042</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-1011.84014</v>
+        <v>-931.1944100000001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>2505.52056</v>
+        <v>2439.18885</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>446.87688</v>
+        <v>-1627.60702</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1324.98788</v>
+        <v>1070.89472</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>108.32257</v>
+        <v>-1208.9304</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-701.1609599999999</v>
+        <v>3118.70059</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-9193.84222</v>
+        <v>-8524.759910000001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-10379.29842</v>
+        <v>-7363.66495</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-14061.90244</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-15481.67471</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-59110.768</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>65.67557000000001</v>
+        <v>44.97926</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>45.80561</v>
+        <v>53.46423</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>126.13715</v>
+        <v>173.35464</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>346.76794</v>
+        <v>422.85311</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>740.54605</v>
+        <v>801.18895</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>267.93192</v>
+        <v>1503.56738</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>444.85997</v>
+        <v>1070.40248</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>345.05899</v>
+        <v>464.54429</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>624.48442</v>
+        <v>653.7838399999999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>641.70068</v>
+        <v>636.9093800000001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1298.18427</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1262.82304</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>22139.126</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>0.00696</v>
+        <v>0</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>0</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>0</v>
+        <v>43.6709</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>0</v>
+        <v>19.171</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>9.683909999999999</v>
+        <v>45.4951</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>55.90478</v>
+        <v>7.7992</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>47.98303</v>
+        <v>52.01662</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>2.522</v>
+        <v>0</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>1.50892</v>
+        <v>0.95892</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>0.4248</v>
@@ -2698,89 +2824,104 @@
       <c r="M49" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>65.66861</v>
+        <v>44.97926</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>45.80561</v>
+        <v>53.46423</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>126.13715</v>
+        <v>129.68374</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>346.76794</v>
+        <v>403.68211</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>730.8621400000001</v>
+        <v>755.69385</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>212.02714</v>
+        <v>1495.76818</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>396.87694</v>
+        <v>1018.38586</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>342.53699</v>
+        <v>464.54429</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>622.9755</v>
+        <v>652.82492</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>641.27588</v>
+        <v>636.4845799999999</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>1298.18427</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1262.82304</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>22139.126</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>212.85451</v>
+        <v>32.48481</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>4.97666</v>
+        <v>4.96136</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>1351.01475</v>
+        <v>1340.15884</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>140.61647</v>
+        <v>120.98683</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>294.99782</v>
+        <v>1200.04681</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>166.57979</v>
+        <v>1640.84345</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>192.06368</v>
+        <v>5808.594230000001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>596.6549200000001</v>
+        <v>1603.86641</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>593.70962</v>
+        <v>1503.75092</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>2268.99508</v>
+        <v>2260.87363</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1646.3214</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1897.41157</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1719.537</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2815,38 +2956,43 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>0.03025</v>
+        <v>1.54957</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>0</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>0</v>
+        <v>0.80274</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>42.97763</v>
+        <v>29.06253</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>38.02615</v>
+        <v>162.37966</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>34.90098</v>
+        <v>38.53897</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>13.08861</v>
+        <v>41.30469</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>31.41051</v>
+        <v>154.99894</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>0.29152</v>
+        <v>1.32257</v>
       </c>
       <c r="L53" s="48" t="n">
         <v>126.39685</v>
@@ -2854,164 +3000,187 @@
       <c r="M53" s="48" t="n">
         <v>6.015470000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>1.605</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>212.82426</v>
+        <v>30.93524</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>4.97666</v>
+        <v>4.96136</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>1351.01475</v>
+        <v>1339.3561</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>97.63884</v>
+        <v>91.9243</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>256.97167</v>
+        <v>1037.66715</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>131.67881</v>
+        <v>1602.30448</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>178.97507</v>
+        <v>5767.28954</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>565.24441</v>
+        <v>1448.86747</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>593.4181</v>
+        <v>1502.42835</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>2142.59823</v>
+        <v>2134.47678</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>1640.30593</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1891.3961</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>1717.932</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-728.53759</v>
+        <v>-3234.13974</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-219.14623</v>
+        <v>-3023.00755</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-2236.71774</v>
+        <v>-2097.99861</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>2711.67203</v>
+        <v>2741.05513</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>892.42511</v>
+        <v>-2026.46488</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>1426.34001</v>
+        <v>933.61865</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>361.11886</v>
+        <v>-5947.12215</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-952.75689</v>
+        <v>1979.37847</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-9163.067419999999</v>
+        <v>-9374.726990000001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-12006.59282</v>
+        <v>-8987.629199999999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-14410.03957</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-16116.26324</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-38691.179</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>111.72945</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>229.87118</v>
+        <v>171.25891</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>374.3239</v>
+        <v>334.24407</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>302.24157</v>
+        <v>261.37818</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>320.24515</v>
+        <v>318.4044699999999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>416.09993</v>
+        <v>417.98844</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>598.27224</v>
+        <v>650.24072</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>696.86476</v>
+        <v>602.6105600000001</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>543.96531</v>
+        <v>613.66917</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>1338.72764</v>
+        <v>2122.96779</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>695.98126</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>694.64814</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1378.886</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-840.2670400000001</v>
+        <v>-3345.86919</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-449.01741</v>
+        <v>-3194.26646</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-2611.04164</v>
+        <v>-2432.24268</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>2409.43046</v>
+        <v>2479.67695</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>572.1799599999999</v>
+        <v>-2344.86935</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>1010.24008</v>
+        <v>515.63021</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-237.15338</v>
+        <v>-6597.36287</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-1649.62165</v>
+        <v>1376.76791</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-9707.032730000001</v>
+        <v>-9988.39616</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-13345.32046</v>
+        <v>-11110.59699</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-15106.02083</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-16810.91138</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-40070.065</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D59" s="35" t="n">
+        <v>16</v>
+      </c>
+      <c r="E59" s="35" t="n">
+        <v>20</v>
+      </c>
+      <c r="F59" s="35" t="n">
+        <v>18</v>
+      </c>
+      <c r="G59" s="35" t="n">
+        <v>24</v>
+      </c>
+      <c r="H59" s="35" t="n">
+        <v>28</v>
+      </c>
+      <c r="I59" s="35" t="n">
+        <v>29</v>
+      </c>
+      <c r="J59" s="35" t="n">
+        <v>33</v>
+      </c>
+      <c r="K59" s="35" t="n">
+        <v>38</v>
+      </c>
+      <c r="L59" s="35" t="n">
+        <v>21</v>
+      </c>
+      <c r="M59" s="35" t="n">
         <v>22</v>
       </c>
-      <c r="E59" s="35" t="n">
-        <v>26</v>
-      </c>
-      <c r="F59" s="35" t="n">
-        <v>28</v>
-      </c>
-      <c r="G59" s="35" t="n">
-        <v>35</v>
-      </c>
-      <c r="H59" s="35" t="n">
-        <v>34</v>
-      </c>
-      <c r="I59" s="35" t="n">
-        <v>35</v>
-      </c>
-      <c r="J59" s="35" t="n">
-        <v>44</v>
-      </c>
-      <c r="K59" s="35" t="n">
-        <v>43</v>
-      </c>
-      <c r="L59" s="35" t="n">
-        <v>23</v>
-      </c>
-      <c r="M59" s="35" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="N59" s="35" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>